--- a/Vykaz_vymer_Neuplny.xlsx
+++ b/Vykaz_vymer_Neuplny.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Krov - strecha" sheetId="1" r:id="rId1"/>
     <sheet name="Zemne prace" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Izolacia zakladov" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Skrátený popis</t>
   </si>
@@ -105,16 +105,19 @@
     <t>Základové dosky zo ŽB tr. C 20/25</t>
   </si>
   <si>
-    <t>Výztuž základových desek svařovanými sítěmi Kari</t>
-  </si>
-  <si>
     <t>Základové pasy zo ŽB tr. C 20/25</t>
   </si>
   <si>
-    <t>Výztuž základových pasov betonárskou oceľou 10 505 (R)</t>
-  </si>
-  <si>
-    <t>??? Treba</t>
+    <t>Drenážne potrubie DN 100</t>
+  </si>
+  <si>
+    <t>Hydroizolacia základov</t>
+  </si>
+  <si>
+    <t>Výztuž základových dosiek zváranými Kari sieťami d6mm 200x200 (146m2)</t>
+  </si>
+  <si>
+    <t>Tepelná izolácia (EPS 100mm)</t>
   </si>
 </sst>
 </file>
@@ -231,15 +234,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,6 +260,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +620,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -627,30 +630,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.8" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -662,10 +665,10 @@
       <c r="E2">
         <v>186.25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -679,19 +682,19 @@
       <c r="E3">
         <v>42.225000000000001</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -702,9 +705,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -713,11 +716,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -728,9 +731,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13"/>
       <c r="D7" t="s">
         <v>10</v>
       </c>
@@ -739,11 +742,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
@@ -754,9 +757,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -765,7 +768,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
@@ -777,10 +780,10 @@
       <c r="E10">
         <v>34.286000000000001</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -794,19 +797,19 @@
       <c r="E11">
         <v>39.246000000000002</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
@@ -817,9 +820,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="13"/>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -828,11 +831,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="12">
         <v>5</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
@@ -843,9 +846,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -854,11 +857,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="A16" s="12">
         <v>6</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
@@ -869,9 +872,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
       <c r="D17" t="s">
         <v>10</v>
       </c>
@@ -891,11 +894,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -903,12 +907,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -921,55 +924,55 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.8" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="13">
-        <v>345</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10">
+        <v>353</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -982,20 +985,20 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>48</v>
       </c>
     </row>
@@ -1003,62 +1006,56 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6">
-        <v>14.61</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>0.442</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1070,12 +1067,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.8" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Vykaz_vymer_Neuplny.xlsx
+++ b/Vykaz_vymer_Neuplny.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Krov - strecha" sheetId="1" r:id="rId1"/>
     <sheet name="Zemne prace" sheetId="2" r:id="rId2"/>
-    <sheet name="Izolacia zakladov" sheetId="3" r:id="rId3"/>
+    <sheet name="Izolacia zakladov a strechy" sheetId="3" r:id="rId3"/>
+    <sheet name="Velox" sheetId="4" r:id="rId4"/>
+    <sheet name="Omietky" sheetId="5" r:id="rId5"/>
+    <sheet name="Okna a ext. dvere" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="174">
   <si>
     <t>Skrátený popis</t>
   </si>
@@ -117,20 +120,621 @@
     <t>Výztuž základových dosiek zváranými Kari sieťami d6mm 200x200 (146m2)</t>
   </si>
   <si>
-    <t>Tepelná izolácia (EPS 100mm)</t>
+    <t>RD  Šenkvice (p.Števek)</t>
+  </si>
+  <si>
+    <t>CP 2.7.121B   steny obvod.plášť (ZL40) a vnút.nosné (EL30, LL22), strop nad I.PP, strop nad I.NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO - Rodinný dom - Rozpis materiálu VELOX  </t>
+  </si>
+  <si>
+    <t>P.č.</t>
+  </si>
+  <si>
+    <t>Popis</t>
+  </si>
+  <si>
+    <t>m.j.</t>
+  </si>
+  <si>
+    <t>Množstvo v m.j.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.C. Cenníková cena   </t>
+  </si>
+  <si>
+    <t>Cena celkom Cenníková cena</t>
+  </si>
+  <si>
+    <t>Orientačná hmotnosť</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /to/</t>
+  </si>
+  <si>
+    <t>Steny I.PP a I.NP</t>
+  </si>
+  <si>
+    <t>WS-EPS215</t>
+  </si>
+  <si>
+    <t>WS-EPS115</t>
+  </si>
+  <si>
+    <t>WSD 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS 21,5/15,0/3,5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS 21,5/15,0/3,5 </t>
+  </si>
+  <si>
+    <t>SS 21,5 na 400 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS 11,5/15,0/3,5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS 11,5/15,0/3,5 </t>
+  </si>
+  <si>
+    <t>JS 3,5/15,0/3,5</t>
+  </si>
+  <si>
+    <t>OS 3,5/15,0/3,5</t>
+  </si>
+  <si>
+    <t>Stenové nosníky 2,8 m/0,15</t>
+  </si>
+  <si>
+    <t>Stenové nosníky 3,0 m/0,15</t>
+  </si>
+  <si>
+    <t>Stenové nosníky 4,0 m/0,15</t>
+  </si>
+  <si>
+    <t>Okrajové pruhy  328</t>
+  </si>
+  <si>
+    <t>Okrajové pruhy  148</t>
+  </si>
+  <si>
+    <t>Preklad 1,0m</t>
+  </si>
+  <si>
+    <t>2ks z N4,8m</t>
+  </si>
+  <si>
+    <t>Preklad 1,1m</t>
+  </si>
+  <si>
+    <t>1ks z N4,8m</t>
+  </si>
+  <si>
+    <t>Preklad 1,2m</t>
+  </si>
+  <si>
+    <t>Preklad 1,3m</t>
+  </si>
+  <si>
+    <t>Preklad 1,4m</t>
+  </si>
+  <si>
+    <t>6ks z N4,8m</t>
+  </si>
+  <si>
+    <t>Preklad 1,5m</t>
+  </si>
+  <si>
+    <t>Preklad 1,6m</t>
+  </si>
+  <si>
+    <t>Preklad 1,8m</t>
+  </si>
+  <si>
+    <t>1ks z N 5,8m</t>
+  </si>
+  <si>
+    <t>Preklad 1,9m</t>
+  </si>
+  <si>
+    <t>7ks z N 5,8m</t>
+  </si>
+  <si>
+    <t>Nosník dl. 4,8 na preklady</t>
+  </si>
+  <si>
+    <t>Nosník dl. 5,8 na preklady</t>
+  </si>
+  <si>
+    <t>SO  RD Steny VELOX spolu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Strop  nad I.PP (monolitický rebrový VELOX 170+50)</t>
+  </si>
+  <si>
+    <t>Nos.N1 dl.5,6m E-15, 2x14,5,08</t>
+  </si>
+  <si>
+    <t>SP 170mm, š.500,dl.2000mm</t>
+  </si>
+  <si>
+    <t>SP 170mm, š.500,dl.1660mm</t>
+  </si>
+  <si>
+    <t>SP 170mm, š.500,dl.1500mm</t>
+  </si>
+  <si>
+    <t>SP 170mm, š.300,dl.2000mm</t>
+  </si>
+  <si>
+    <t>SP 170mm, š.300,dl.1660mm</t>
+  </si>
+  <si>
+    <t>SP 170mm, š.300,dl.1500mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doska WS 35 </t>
+  </si>
+  <si>
+    <t>Strop nad I.PP</t>
+  </si>
+  <si>
+    <t>Strop  nad I.NP (monolitický rebrový VELOX 170+50)</t>
+  </si>
+  <si>
+    <t>Nos.N2 dl.4,8m E-15, 2x12,5,08</t>
+  </si>
+  <si>
+    <t>REKAPITULÁCIA</t>
+  </si>
+  <si>
+    <t>Steny VELOX I.PP a I.NP</t>
+  </si>
+  <si>
+    <t>Strop nad I.NP</t>
+  </si>
+  <si>
+    <t>Spolu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - zľava  </t>
+  </si>
+  <si>
+    <t>Ponuková cena Ntto na steny a stropy  RD celkom</t>
+  </si>
+  <si>
+    <t>Steny VELOX navrhnuté pre objekt RD:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>I.PP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> obvodové steny VELOX  ZL 40 (hr.400mm): zloženie WS-EPS215 - bet jadro 150mm- WSD35 (hr.EPS180mm, Tep. Odpor R=4,85m2K/W, U= 0,2 W/m2K)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          strop monolitický rebrový nad I. PP 170+50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>I.NP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> obvodové steny VELOX  ZL 40 (hr.400mm): zloženie WS-EPS215 - bet jadro 150mm- WSD35 (hr.EPS180mm, Tep. Odpor R=4,85m2K/W, U= 0,2 W/m2K)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">           vnút. deliaca stena VELOX EL30 (hr.300mm): zloženie WS-EPS115 - bet jadro 150mm- WSD35 (hr.EPS 80mm, Tep. Odpor R=1,52m2K/W, U= 0,59 W/m2K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          vnút nos. steny VELOX  LL22 (hr.220): zloženie WSD35 - bet jadro 150mm- WSD35 (vzduch.nepriezv. Rw=57 dBhr. tep.odpor R=0,66m2K/W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          strop monolitický rebrový nad I. NP 170+50</t>
+  </si>
+  <si>
+    <t>V rozpise sú zahrnuté  obvodové steny, vnútorné nosné steny, deliaca stena a štítové steny (VELOX ZL40)</t>
+  </si>
+  <si>
+    <r>
+      <t>POZOR! V cene materiálu VELOX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> nie je započítaná akákoľvek výstuž okrem  stropných nosníkov, stenových výstuh VELOX a </t>
+    </r>
+  </si>
+  <si>
+    <t>prekladov do svetl. otvoru 1,5 m, montáž,  betón, betonáž ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponuková cena je Ntto cena, bez DPH, dopravy a balného . Cena bola upravená na základe projektu statiky (výkresy&amp; tvaru I.PP a I.NP, vypracovaného </t>
+  </si>
+  <si>
+    <t>firmou SOLING 01/2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predpoklad množstvo bet. Zmesi steny I.PP VELOX ZL40:  10 m3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predpoklad množstvo bet. Zmesi steny I.NP+štíty ZL40+EL30+LL22:  33m3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predpoklad množstvo bet. Zmesi strop nad I.PP(nadbetonávka 50mm, spotreba 0,086m3/m2):  3m3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predpoklad množstvo bet. Zmesi strop nad I.NP(nadbetonávka 50mm, spotreba 0,086m3/m2):  9m3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (množstvo bet zmesi je orientačné, je potrebné ho upresniť podľa skutočného vyhotovenia na stavbe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - mimoriadna zľava</t>
+  </si>
+  <si>
+    <t>Vápenocementová omietka štuková dvojvrstvová vnútorných stien nanášaná ručne</t>
+  </si>
+  <si>
+    <t>Vápenocementová omietka štuková dvojvrstvová vnútorných stropov nanášaná ručne</t>
+  </si>
+  <si>
+    <t>Tepelná izolácia základov (EPS 100mm)</t>
+  </si>
+  <si>
+    <t>Vápenná alebo štuková dvojvrstvová omietka vonkajších stien nanášaná ručne</t>
+  </si>
+  <si>
+    <t>Tepelná izolácia stropu nad 1NP (EPS 50mm)</t>
+  </si>
+  <si>
+    <t>Sadrokartón protipožiarny 15mm (zvýšený podhľad v obývačke)</t>
+  </si>
+  <si>
+    <t>Parotesná fólia 0.5mm</t>
+  </si>
+  <si>
+    <t>Mineralna tepelná izolácia medzi krokvami 180mm</t>
+  </si>
+  <si>
+    <t>Paropriepustná poistná hydroizolačná folia 0.5mm</t>
+  </si>
+  <si>
+    <t>Drevoštiepková doska (strop nad 1NP) 2x25mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1000 mm
+Výška: 1500 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1000 mm
+Výška: 1350 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno
+</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 675 mm
+Výška: 1015 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 515 mm
+Výška: 990 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: nie</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 800 mm
+Výška: 500 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: nie</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1355 mm
+Výška: 500 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: nie</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1500 mm
+Výška: 1650 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1000 mm
+Výška: 1650 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1200 mm
+Výška: 1100 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1400 mm
+Výška: 995 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 2065 mm
+Výška: 860 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 515 mm
+Výška: 1150 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 2405 mm
+Výška: 995 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 515 mm
+Výška: 1650 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 900 mm
+Výška: 450 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1450 mm
+Výška: 2400 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>obyvačka</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>detská, prístavba</t>
+  </si>
+  <si>
+    <t>prístavba</t>
+  </si>
+  <si>
+    <t>chodba</t>
+  </si>
+  <si>
+    <t>sklad</t>
+  </si>
+  <si>
+    <t>strojovna</t>
+  </si>
+  <si>
+    <t>sprcha</t>
+  </si>
+  <si>
+    <t>kupeľňa</t>
+  </si>
+  <si>
+    <t>spáľňa</t>
+  </si>
+  <si>
+    <t>prístavba kúpeľňa</t>
+  </si>
+  <si>
+    <t>obývačka</t>
+  </si>
+  <si>
+    <t>kuchyňa</t>
+  </si>
+  <si>
+    <t>Dvere vchodové</t>
+  </si>
+  <si>
+    <t>Profil: Plastové dvere
+Farba: Farba / Biela
+Šírka: 1200 mm
+Výška: 2450 mm</t>
+  </si>
+  <si>
+    <t>Profil: Plastové dvere
+Farba: Farba / Biela
+Šírka: 1100 mm
+Výška: 2100 mm</t>
+  </si>
+  <si>
+    <t>Profil: Plastové dvere dvojkrídlo, pevná časť vľavo
+Farba: Farba / Biela
+Šírka: 900 mm
+Výška: 2450 mm</t>
+  </si>
+  <si>
+    <t>pivnica</t>
+  </si>
+  <si>
+    <t>hlavné</t>
+  </si>
+  <si>
+    <t>Balkón OS</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1000 mm
+Výška: 2450 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Balkón O+OS</t>
+  </si>
+  <si>
+    <t>Profil: PASIV–HL 6 komorový
+Farba: Farba / Biela
+Šírka: 1500 mm
+Výška: 2450 mm
+Externé žalúzie: áno
+Vnútorné parapety: áno
+Vonkajšie parapety: áno</t>
+  </si>
+  <si>
+    <t>spálňa</t>
+  </si>
+  <si>
+    <t>prístavba, zimná zahrada</t>
+  </si>
+  <si>
+    <t>Profil: Plastové dvere
+Farba: Farba / Biela
+Šírka: 850 mm
+Výška: 1825 mm</t>
+  </si>
+  <si>
+    <t>do podkrovia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _E_U_R_-;\-* #,##0.00\ _E_U_R_-;_-* &quot;-&quot;??\ _E_U_R_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _K_č_-;\-* #,##0.00\ _K_č_-;_-* &quot;-&quot;??\ _K_č_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
@@ -145,6 +749,135 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,7 +894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -227,31 +960,397 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -262,17 +1361,329 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,8 +2030,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -690,11 +2101,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12">
+      <c r="A4" s="134">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="132" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -705,9 +2116,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="132"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -716,11 +2127,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12">
+      <c r="A6" s="134">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="133"/>
+      <c r="C6" s="132" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -731,9 +2142,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="132"/>
       <c r="D7" t="s">
         <v>10</v>
       </c>
@@ -742,11 +2153,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12">
+      <c r="A8" s="134">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="132" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
@@ -757,9 +2168,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="132"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -805,11 +2216,11 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12">
+      <c r="A12" s="134">
         <v>4</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="132" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
@@ -820,9 +2231,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="132"/>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -831,11 +2242,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="134">
         <v>5</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="132" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
@@ -846,9 +2257,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="132"/>
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -857,11 +2268,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="12">
+      <c r="A16" s="134">
         <v>6</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="132" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
@@ -872,9 +2283,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="132"/>
       <c r="D17" t="s">
         <v>10</v>
       </c>
@@ -894,12 +2305,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -912,6 +2317,12 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1067,15 +2478,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.8" thickBot="1">
@@ -1114,17 +2525,2649 @@
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3">
         <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="34" style="16" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="127" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="127" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="127" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="256" width="9.109375" style="16"/>
+    <col min="257" max="257" width="5.109375" style="16" customWidth="1"/>
+    <col min="258" max="258" width="34" style="16" customWidth="1"/>
+    <col min="259" max="259" width="7.5546875" style="16" customWidth="1"/>
+    <col min="260" max="260" width="11.5546875" style="16" customWidth="1"/>
+    <col min="261" max="261" width="12.109375" style="16" customWidth="1"/>
+    <col min="262" max="262" width="15.109375" style="16" customWidth="1"/>
+    <col min="263" max="263" width="12.109375" style="16" customWidth="1"/>
+    <col min="264" max="264" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="265" max="512" width="9.109375" style="16"/>
+    <col min="513" max="513" width="5.109375" style="16" customWidth="1"/>
+    <col min="514" max="514" width="34" style="16" customWidth="1"/>
+    <col min="515" max="515" width="7.5546875" style="16" customWidth="1"/>
+    <col min="516" max="516" width="11.5546875" style="16" customWidth="1"/>
+    <col min="517" max="517" width="12.109375" style="16" customWidth="1"/>
+    <col min="518" max="518" width="15.109375" style="16" customWidth="1"/>
+    <col min="519" max="519" width="12.109375" style="16" customWidth="1"/>
+    <col min="520" max="520" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="521" max="768" width="9.109375" style="16"/>
+    <col min="769" max="769" width="5.109375" style="16" customWidth="1"/>
+    <col min="770" max="770" width="34" style="16" customWidth="1"/>
+    <col min="771" max="771" width="7.5546875" style="16" customWidth="1"/>
+    <col min="772" max="772" width="11.5546875" style="16" customWidth="1"/>
+    <col min="773" max="773" width="12.109375" style="16" customWidth="1"/>
+    <col min="774" max="774" width="15.109375" style="16" customWidth="1"/>
+    <col min="775" max="775" width="12.109375" style="16" customWidth="1"/>
+    <col min="776" max="776" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="777" max="1024" width="9.109375" style="16"/>
+    <col min="1025" max="1025" width="5.109375" style="16" customWidth="1"/>
+    <col min="1026" max="1026" width="34" style="16" customWidth="1"/>
+    <col min="1027" max="1027" width="7.5546875" style="16" customWidth="1"/>
+    <col min="1028" max="1028" width="11.5546875" style="16" customWidth="1"/>
+    <col min="1029" max="1029" width="12.109375" style="16" customWidth="1"/>
+    <col min="1030" max="1030" width="15.109375" style="16" customWidth="1"/>
+    <col min="1031" max="1031" width="12.109375" style="16" customWidth="1"/>
+    <col min="1032" max="1032" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1280" width="9.109375" style="16"/>
+    <col min="1281" max="1281" width="5.109375" style="16" customWidth="1"/>
+    <col min="1282" max="1282" width="34" style="16" customWidth="1"/>
+    <col min="1283" max="1283" width="7.5546875" style="16" customWidth="1"/>
+    <col min="1284" max="1284" width="11.5546875" style="16" customWidth="1"/>
+    <col min="1285" max="1285" width="12.109375" style="16" customWidth="1"/>
+    <col min="1286" max="1286" width="15.109375" style="16" customWidth="1"/>
+    <col min="1287" max="1287" width="12.109375" style="16" customWidth="1"/>
+    <col min="1288" max="1288" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1536" width="9.109375" style="16"/>
+    <col min="1537" max="1537" width="5.109375" style="16" customWidth="1"/>
+    <col min="1538" max="1538" width="34" style="16" customWidth="1"/>
+    <col min="1539" max="1539" width="7.5546875" style="16" customWidth="1"/>
+    <col min="1540" max="1540" width="11.5546875" style="16" customWidth="1"/>
+    <col min="1541" max="1541" width="12.109375" style="16" customWidth="1"/>
+    <col min="1542" max="1542" width="15.109375" style="16" customWidth="1"/>
+    <col min="1543" max="1543" width="12.109375" style="16" customWidth="1"/>
+    <col min="1544" max="1544" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1792" width="9.109375" style="16"/>
+    <col min="1793" max="1793" width="5.109375" style="16" customWidth="1"/>
+    <col min="1794" max="1794" width="34" style="16" customWidth="1"/>
+    <col min="1795" max="1795" width="7.5546875" style="16" customWidth="1"/>
+    <col min="1796" max="1796" width="11.5546875" style="16" customWidth="1"/>
+    <col min="1797" max="1797" width="12.109375" style="16" customWidth="1"/>
+    <col min="1798" max="1798" width="15.109375" style="16" customWidth="1"/>
+    <col min="1799" max="1799" width="12.109375" style="16" customWidth="1"/>
+    <col min="1800" max="1800" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1801" max="2048" width="9.109375" style="16"/>
+    <col min="2049" max="2049" width="5.109375" style="16" customWidth="1"/>
+    <col min="2050" max="2050" width="34" style="16" customWidth="1"/>
+    <col min="2051" max="2051" width="7.5546875" style="16" customWidth="1"/>
+    <col min="2052" max="2052" width="11.5546875" style="16" customWidth="1"/>
+    <col min="2053" max="2053" width="12.109375" style="16" customWidth="1"/>
+    <col min="2054" max="2054" width="15.109375" style="16" customWidth="1"/>
+    <col min="2055" max="2055" width="12.109375" style="16" customWidth="1"/>
+    <col min="2056" max="2056" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2304" width="9.109375" style="16"/>
+    <col min="2305" max="2305" width="5.109375" style="16" customWidth="1"/>
+    <col min="2306" max="2306" width="34" style="16" customWidth="1"/>
+    <col min="2307" max="2307" width="7.5546875" style="16" customWidth="1"/>
+    <col min="2308" max="2308" width="11.5546875" style="16" customWidth="1"/>
+    <col min="2309" max="2309" width="12.109375" style="16" customWidth="1"/>
+    <col min="2310" max="2310" width="15.109375" style="16" customWidth="1"/>
+    <col min="2311" max="2311" width="12.109375" style="16" customWidth="1"/>
+    <col min="2312" max="2312" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2560" width="9.109375" style="16"/>
+    <col min="2561" max="2561" width="5.109375" style="16" customWidth="1"/>
+    <col min="2562" max="2562" width="34" style="16" customWidth="1"/>
+    <col min="2563" max="2563" width="7.5546875" style="16" customWidth="1"/>
+    <col min="2564" max="2564" width="11.5546875" style="16" customWidth="1"/>
+    <col min="2565" max="2565" width="12.109375" style="16" customWidth="1"/>
+    <col min="2566" max="2566" width="15.109375" style="16" customWidth="1"/>
+    <col min="2567" max="2567" width="12.109375" style="16" customWidth="1"/>
+    <col min="2568" max="2568" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2816" width="9.109375" style="16"/>
+    <col min="2817" max="2817" width="5.109375" style="16" customWidth="1"/>
+    <col min="2818" max="2818" width="34" style="16" customWidth="1"/>
+    <col min="2819" max="2819" width="7.5546875" style="16" customWidth="1"/>
+    <col min="2820" max="2820" width="11.5546875" style="16" customWidth="1"/>
+    <col min="2821" max="2821" width="12.109375" style="16" customWidth="1"/>
+    <col min="2822" max="2822" width="15.109375" style="16" customWidth="1"/>
+    <col min="2823" max="2823" width="12.109375" style="16" customWidth="1"/>
+    <col min="2824" max="2824" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2825" max="3072" width="9.109375" style="16"/>
+    <col min="3073" max="3073" width="5.109375" style="16" customWidth="1"/>
+    <col min="3074" max="3074" width="34" style="16" customWidth="1"/>
+    <col min="3075" max="3075" width="7.5546875" style="16" customWidth="1"/>
+    <col min="3076" max="3076" width="11.5546875" style="16" customWidth="1"/>
+    <col min="3077" max="3077" width="12.109375" style="16" customWidth="1"/>
+    <col min="3078" max="3078" width="15.109375" style="16" customWidth="1"/>
+    <col min="3079" max="3079" width="12.109375" style="16" customWidth="1"/>
+    <col min="3080" max="3080" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3328" width="9.109375" style="16"/>
+    <col min="3329" max="3329" width="5.109375" style="16" customWidth="1"/>
+    <col min="3330" max="3330" width="34" style="16" customWidth="1"/>
+    <col min="3331" max="3331" width="7.5546875" style="16" customWidth="1"/>
+    <col min="3332" max="3332" width="11.5546875" style="16" customWidth="1"/>
+    <col min="3333" max="3333" width="12.109375" style="16" customWidth="1"/>
+    <col min="3334" max="3334" width="15.109375" style="16" customWidth="1"/>
+    <col min="3335" max="3335" width="12.109375" style="16" customWidth="1"/>
+    <col min="3336" max="3336" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3584" width="9.109375" style="16"/>
+    <col min="3585" max="3585" width="5.109375" style="16" customWidth="1"/>
+    <col min="3586" max="3586" width="34" style="16" customWidth="1"/>
+    <col min="3587" max="3587" width="7.5546875" style="16" customWidth="1"/>
+    <col min="3588" max="3588" width="11.5546875" style="16" customWidth="1"/>
+    <col min="3589" max="3589" width="12.109375" style="16" customWidth="1"/>
+    <col min="3590" max="3590" width="15.109375" style="16" customWidth="1"/>
+    <col min="3591" max="3591" width="12.109375" style="16" customWidth="1"/>
+    <col min="3592" max="3592" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3840" width="9.109375" style="16"/>
+    <col min="3841" max="3841" width="5.109375" style="16" customWidth="1"/>
+    <col min="3842" max="3842" width="34" style="16" customWidth="1"/>
+    <col min="3843" max="3843" width="7.5546875" style="16" customWidth="1"/>
+    <col min="3844" max="3844" width="11.5546875" style="16" customWidth="1"/>
+    <col min="3845" max="3845" width="12.109375" style="16" customWidth="1"/>
+    <col min="3846" max="3846" width="15.109375" style="16" customWidth="1"/>
+    <col min="3847" max="3847" width="12.109375" style="16" customWidth="1"/>
+    <col min="3848" max="3848" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3849" max="4096" width="9.109375" style="16"/>
+    <col min="4097" max="4097" width="5.109375" style="16" customWidth="1"/>
+    <col min="4098" max="4098" width="34" style="16" customWidth="1"/>
+    <col min="4099" max="4099" width="7.5546875" style="16" customWidth="1"/>
+    <col min="4100" max="4100" width="11.5546875" style="16" customWidth="1"/>
+    <col min="4101" max="4101" width="12.109375" style="16" customWidth="1"/>
+    <col min="4102" max="4102" width="15.109375" style="16" customWidth="1"/>
+    <col min="4103" max="4103" width="12.109375" style="16" customWidth="1"/>
+    <col min="4104" max="4104" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4352" width="9.109375" style="16"/>
+    <col min="4353" max="4353" width="5.109375" style="16" customWidth="1"/>
+    <col min="4354" max="4354" width="34" style="16" customWidth="1"/>
+    <col min="4355" max="4355" width="7.5546875" style="16" customWidth="1"/>
+    <col min="4356" max="4356" width="11.5546875" style="16" customWidth="1"/>
+    <col min="4357" max="4357" width="12.109375" style="16" customWidth="1"/>
+    <col min="4358" max="4358" width="15.109375" style="16" customWidth="1"/>
+    <col min="4359" max="4359" width="12.109375" style="16" customWidth="1"/>
+    <col min="4360" max="4360" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4608" width="9.109375" style="16"/>
+    <col min="4609" max="4609" width="5.109375" style="16" customWidth="1"/>
+    <col min="4610" max="4610" width="34" style="16" customWidth="1"/>
+    <col min="4611" max="4611" width="7.5546875" style="16" customWidth="1"/>
+    <col min="4612" max="4612" width="11.5546875" style="16" customWidth="1"/>
+    <col min="4613" max="4613" width="12.109375" style="16" customWidth="1"/>
+    <col min="4614" max="4614" width="15.109375" style="16" customWidth="1"/>
+    <col min="4615" max="4615" width="12.109375" style="16" customWidth="1"/>
+    <col min="4616" max="4616" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4864" width="9.109375" style="16"/>
+    <col min="4865" max="4865" width="5.109375" style="16" customWidth="1"/>
+    <col min="4866" max="4866" width="34" style="16" customWidth="1"/>
+    <col min="4867" max="4867" width="7.5546875" style="16" customWidth="1"/>
+    <col min="4868" max="4868" width="11.5546875" style="16" customWidth="1"/>
+    <col min="4869" max="4869" width="12.109375" style="16" customWidth="1"/>
+    <col min="4870" max="4870" width="15.109375" style="16" customWidth="1"/>
+    <col min="4871" max="4871" width="12.109375" style="16" customWidth="1"/>
+    <col min="4872" max="4872" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4873" max="5120" width="9.109375" style="16"/>
+    <col min="5121" max="5121" width="5.109375" style="16" customWidth="1"/>
+    <col min="5122" max="5122" width="34" style="16" customWidth="1"/>
+    <col min="5123" max="5123" width="7.5546875" style="16" customWidth="1"/>
+    <col min="5124" max="5124" width="11.5546875" style="16" customWidth="1"/>
+    <col min="5125" max="5125" width="12.109375" style="16" customWidth="1"/>
+    <col min="5126" max="5126" width="15.109375" style="16" customWidth="1"/>
+    <col min="5127" max="5127" width="12.109375" style="16" customWidth="1"/>
+    <col min="5128" max="5128" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5376" width="9.109375" style="16"/>
+    <col min="5377" max="5377" width="5.109375" style="16" customWidth="1"/>
+    <col min="5378" max="5378" width="34" style="16" customWidth="1"/>
+    <col min="5379" max="5379" width="7.5546875" style="16" customWidth="1"/>
+    <col min="5380" max="5380" width="11.5546875" style="16" customWidth="1"/>
+    <col min="5381" max="5381" width="12.109375" style="16" customWidth="1"/>
+    <col min="5382" max="5382" width="15.109375" style="16" customWidth="1"/>
+    <col min="5383" max="5383" width="12.109375" style="16" customWidth="1"/>
+    <col min="5384" max="5384" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5632" width="9.109375" style="16"/>
+    <col min="5633" max="5633" width="5.109375" style="16" customWidth="1"/>
+    <col min="5634" max="5634" width="34" style="16" customWidth="1"/>
+    <col min="5635" max="5635" width="7.5546875" style="16" customWidth="1"/>
+    <col min="5636" max="5636" width="11.5546875" style="16" customWidth="1"/>
+    <col min="5637" max="5637" width="12.109375" style="16" customWidth="1"/>
+    <col min="5638" max="5638" width="15.109375" style="16" customWidth="1"/>
+    <col min="5639" max="5639" width="12.109375" style="16" customWidth="1"/>
+    <col min="5640" max="5640" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5888" width="9.109375" style="16"/>
+    <col min="5889" max="5889" width="5.109375" style="16" customWidth="1"/>
+    <col min="5890" max="5890" width="34" style="16" customWidth="1"/>
+    <col min="5891" max="5891" width="7.5546875" style="16" customWidth="1"/>
+    <col min="5892" max="5892" width="11.5546875" style="16" customWidth="1"/>
+    <col min="5893" max="5893" width="12.109375" style="16" customWidth="1"/>
+    <col min="5894" max="5894" width="15.109375" style="16" customWidth="1"/>
+    <col min="5895" max="5895" width="12.109375" style="16" customWidth="1"/>
+    <col min="5896" max="5896" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5897" max="6144" width="9.109375" style="16"/>
+    <col min="6145" max="6145" width="5.109375" style="16" customWidth="1"/>
+    <col min="6146" max="6146" width="34" style="16" customWidth="1"/>
+    <col min="6147" max="6147" width="7.5546875" style="16" customWidth="1"/>
+    <col min="6148" max="6148" width="11.5546875" style="16" customWidth="1"/>
+    <col min="6149" max="6149" width="12.109375" style="16" customWidth="1"/>
+    <col min="6150" max="6150" width="15.109375" style="16" customWidth="1"/>
+    <col min="6151" max="6151" width="12.109375" style="16" customWidth="1"/>
+    <col min="6152" max="6152" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6400" width="9.109375" style="16"/>
+    <col min="6401" max="6401" width="5.109375" style="16" customWidth="1"/>
+    <col min="6402" max="6402" width="34" style="16" customWidth="1"/>
+    <col min="6403" max="6403" width="7.5546875" style="16" customWidth="1"/>
+    <col min="6404" max="6404" width="11.5546875" style="16" customWidth="1"/>
+    <col min="6405" max="6405" width="12.109375" style="16" customWidth="1"/>
+    <col min="6406" max="6406" width="15.109375" style="16" customWidth="1"/>
+    <col min="6407" max="6407" width="12.109375" style="16" customWidth="1"/>
+    <col min="6408" max="6408" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6656" width="9.109375" style="16"/>
+    <col min="6657" max="6657" width="5.109375" style="16" customWidth="1"/>
+    <col min="6658" max="6658" width="34" style="16" customWidth="1"/>
+    <col min="6659" max="6659" width="7.5546875" style="16" customWidth="1"/>
+    <col min="6660" max="6660" width="11.5546875" style="16" customWidth="1"/>
+    <col min="6661" max="6661" width="12.109375" style="16" customWidth="1"/>
+    <col min="6662" max="6662" width="15.109375" style="16" customWidth="1"/>
+    <col min="6663" max="6663" width="12.109375" style="16" customWidth="1"/>
+    <col min="6664" max="6664" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6912" width="9.109375" style="16"/>
+    <col min="6913" max="6913" width="5.109375" style="16" customWidth="1"/>
+    <col min="6914" max="6914" width="34" style="16" customWidth="1"/>
+    <col min="6915" max="6915" width="7.5546875" style="16" customWidth="1"/>
+    <col min="6916" max="6916" width="11.5546875" style="16" customWidth="1"/>
+    <col min="6917" max="6917" width="12.109375" style="16" customWidth="1"/>
+    <col min="6918" max="6918" width="15.109375" style="16" customWidth="1"/>
+    <col min="6919" max="6919" width="12.109375" style="16" customWidth="1"/>
+    <col min="6920" max="6920" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6921" max="7168" width="9.109375" style="16"/>
+    <col min="7169" max="7169" width="5.109375" style="16" customWidth="1"/>
+    <col min="7170" max="7170" width="34" style="16" customWidth="1"/>
+    <col min="7171" max="7171" width="7.5546875" style="16" customWidth="1"/>
+    <col min="7172" max="7172" width="11.5546875" style="16" customWidth="1"/>
+    <col min="7173" max="7173" width="12.109375" style="16" customWidth="1"/>
+    <col min="7174" max="7174" width="15.109375" style="16" customWidth="1"/>
+    <col min="7175" max="7175" width="12.109375" style="16" customWidth="1"/>
+    <col min="7176" max="7176" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7424" width="9.109375" style="16"/>
+    <col min="7425" max="7425" width="5.109375" style="16" customWidth="1"/>
+    <col min="7426" max="7426" width="34" style="16" customWidth="1"/>
+    <col min="7427" max="7427" width="7.5546875" style="16" customWidth="1"/>
+    <col min="7428" max="7428" width="11.5546875" style="16" customWidth="1"/>
+    <col min="7429" max="7429" width="12.109375" style="16" customWidth="1"/>
+    <col min="7430" max="7430" width="15.109375" style="16" customWidth="1"/>
+    <col min="7431" max="7431" width="12.109375" style="16" customWidth="1"/>
+    <col min="7432" max="7432" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7680" width="9.109375" style="16"/>
+    <col min="7681" max="7681" width="5.109375" style="16" customWidth="1"/>
+    <col min="7682" max="7682" width="34" style="16" customWidth="1"/>
+    <col min="7683" max="7683" width="7.5546875" style="16" customWidth="1"/>
+    <col min="7684" max="7684" width="11.5546875" style="16" customWidth="1"/>
+    <col min="7685" max="7685" width="12.109375" style="16" customWidth="1"/>
+    <col min="7686" max="7686" width="15.109375" style="16" customWidth="1"/>
+    <col min="7687" max="7687" width="12.109375" style="16" customWidth="1"/>
+    <col min="7688" max="7688" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7936" width="9.109375" style="16"/>
+    <col min="7937" max="7937" width="5.109375" style="16" customWidth="1"/>
+    <col min="7938" max="7938" width="34" style="16" customWidth="1"/>
+    <col min="7939" max="7939" width="7.5546875" style="16" customWidth="1"/>
+    <col min="7940" max="7940" width="11.5546875" style="16" customWidth="1"/>
+    <col min="7941" max="7941" width="12.109375" style="16" customWidth="1"/>
+    <col min="7942" max="7942" width="15.109375" style="16" customWidth="1"/>
+    <col min="7943" max="7943" width="12.109375" style="16" customWidth="1"/>
+    <col min="7944" max="7944" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7945" max="8192" width="9.109375" style="16"/>
+    <col min="8193" max="8193" width="5.109375" style="16" customWidth="1"/>
+    <col min="8194" max="8194" width="34" style="16" customWidth="1"/>
+    <col min="8195" max="8195" width="7.5546875" style="16" customWidth="1"/>
+    <col min="8196" max="8196" width="11.5546875" style="16" customWidth="1"/>
+    <col min="8197" max="8197" width="12.109375" style="16" customWidth="1"/>
+    <col min="8198" max="8198" width="15.109375" style="16" customWidth="1"/>
+    <col min="8199" max="8199" width="12.109375" style="16" customWidth="1"/>
+    <col min="8200" max="8200" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8448" width="9.109375" style="16"/>
+    <col min="8449" max="8449" width="5.109375" style="16" customWidth="1"/>
+    <col min="8450" max="8450" width="34" style="16" customWidth="1"/>
+    <col min="8451" max="8451" width="7.5546875" style="16" customWidth="1"/>
+    <col min="8452" max="8452" width="11.5546875" style="16" customWidth="1"/>
+    <col min="8453" max="8453" width="12.109375" style="16" customWidth="1"/>
+    <col min="8454" max="8454" width="15.109375" style="16" customWidth="1"/>
+    <col min="8455" max="8455" width="12.109375" style="16" customWidth="1"/>
+    <col min="8456" max="8456" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8704" width="9.109375" style="16"/>
+    <col min="8705" max="8705" width="5.109375" style="16" customWidth="1"/>
+    <col min="8706" max="8706" width="34" style="16" customWidth="1"/>
+    <col min="8707" max="8707" width="7.5546875" style="16" customWidth="1"/>
+    <col min="8708" max="8708" width="11.5546875" style="16" customWidth="1"/>
+    <col min="8709" max="8709" width="12.109375" style="16" customWidth="1"/>
+    <col min="8710" max="8710" width="15.109375" style="16" customWidth="1"/>
+    <col min="8711" max="8711" width="12.109375" style="16" customWidth="1"/>
+    <col min="8712" max="8712" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8960" width="9.109375" style="16"/>
+    <col min="8961" max="8961" width="5.109375" style="16" customWidth="1"/>
+    <col min="8962" max="8962" width="34" style="16" customWidth="1"/>
+    <col min="8963" max="8963" width="7.5546875" style="16" customWidth="1"/>
+    <col min="8964" max="8964" width="11.5546875" style="16" customWidth="1"/>
+    <col min="8965" max="8965" width="12.109375" style="16" customWidth="1"/>
+    <col min="8966" max="8966" width="15.109375" style="16" customWidth="1"/>
+    <col min="8967" max="8967" width="12.109375" style="16" customWidth="1"/>
+    <col min="8968" max="8968" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8969" max="9216" width="9.109375" style="16"/>
+    <col min="9217" max="9217" width="5.109375" style="16" customWidth="1"/>
+    <col min="9218" max="9218" width="34" style="16" customWidth="1"/>
+    <col min="9219" max="9219" width="7.5546875" style="16" customWidth="1"/>
+    <col min="9220" max="9220" width="11.5546875" style="16" customWidth="1"/>
+    <col min="9221" max="9221" width="12.109375" style="16" customWidth="1"/>
+    <col min="9222" max="9222" width="15.109375" style="16" customWidth="1"/>
+    <col min="9223" max="9223" width="12.109375" style="16" customWidth="1"/>
+    <col min="9224" max="9224" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9472" width="9.109375" style="16"/>
+    <col min="9473" max="9473" width="5.109375" style="16" customWidth="1"/>
+    <col min="9474" max="9474" width="34" style="16" customWidth="1"/>
+    <col min="9475" max="9475" width="7.5546875" style="16" customWidth="1"/>
+    <col min="9476" max="9476" width="11.5546875" style="16" customWidth="1"/>
+    <col min="9477" max="9477" width="12.109375" style="16" customWidth="1"/>
+    <col min="9478" max="9478" width="15.109375" style="16" customWidth="1"/>
+    <col min="9479" max="9479" width="12.109375" style="16" customWidth="1"/>
+    <col min="9480" max="9480" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9728" width="9.109375" style="16"/>
+    <col min="9729" max="9729" width="5.109375" style="16" customWidth="1"/>
+    <col min="9730" max="9730" width="34" style="16" customWidth="1"/>
+    <col min="9731" max="9731" width="7.5546875" style="16" customWidth="1"/>
+    <col min="9732" max="9732" width="11.5546875" style="16" customWidth="1"/>
+    <col min="9733" max="9733" width="12.109375" style="16" customWidth="1"/>
+    <col min="9734" max="9734" width="15.109375" style="16" customWidth="1"/>
+    <col min="9735" max="9735" width="12.109375" style="16" customWidth="1"/>
+    <col min="9736" max="9736" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9984" width="9.109375" style="16"/>
+    <col min="9985" max="9985" width="5.109375" style="16" customWidth="1"/>
+    <col min="9986" max="9986" width="34" style="16" customWidth="1"/>
+    <col min="9987" max="9987" width="7.5546875" style="16" customWidth="1"/>
+    <col min="9988" max="9988" width="11.5546875" style="16" customWidth="1"/>
+    <col min="9989" max="9989" width="12.109375" style="16" customWidth="1"/>
+    <col min="9990" max="9990" width="15.109375" style="16" customWidth="1"/>
+    <col min="9991" max="9991" width="12.109375" style="16" customWidth="1"/>
+    <col min="9992" max="9992" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9993" max="10240" width="9.109375" style="16"/>
+    <col min="10241" max="10241" width="5.109375" style="16" customWidth="1"/>
+    <col min="10242" max="10242" width="34" style="16" customWidth="1"/>
+    <col min="10243" max="10243" width="7.5546875" style="16" customWidth="1"/>
+    <col min="10244" max="10244" width="11.5546875" style="16" customWidth="1"/>
+    <col min="10245" max="10245" width="12.109375" style="16" customWidth="1"/>
+    <col min="10246" max="10246" width="15.109375" style="16" customWidth="1"/>
+    <col min="10247" max="10247" width="12.109375" style="16" customWidth="1"/>
+    <col min="10248" max="10248" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10496" width="9.109375" style="16"/>
+    <col min="10497" max="10497" width="5.109375" style="16" customWidth="1"/>
+    <col min="10498" max="10498" width="34" style="16" customWidth="1"/>
+    <col min="10499" max="10499" width="7.5546875" style="16" customWidth="1"/>
+    <col min="10500" max="10500" width="11.5546875" style="16" customWidth="1"/>
+    <col min="10501" max="10501" width="12.109375" style="16" customWidth="1"/>
+    <col min="10502" max="10502" width="15.109375" style="16" customWidth="1"/>
+    <col min="10503" max="10503" width="12.109375" style="16" customWidth="1"/>
+    <col min="10504" max="10504" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10752" width="9.109375" style="16"/>
+    <col min="10753" max="10753" width="5.109375" style="16" customWidth="1"/>
+    <col min="10754" max="10754" width="34" style="16" customWidth="1"/>
+    <col min="10755" max="10755" width="7.5546875" style="16" customWidth="1"/>
+    <col min="10756" max="10756" width="11.5546875" style="16" customWidth="1"/>
+    <col min="10757" max="10757" width="12.109375" style="16" customWidth="1"/>
+    <col min="10758" max="10758" width="15.109375" style="16" customWidth="1"/>
+    <col min="10759" max="10759" width="12.109375" style="16" customWidth="1"/>
+    <col min="10760" max="10760" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10761" max="11008" width="9.109375" style="16"/>
+    <col min="11009" max="11009" width="5.109375" style="16" customWidth="1"/>
+    <col min="11010" max="11010" width="34" style="16" customWidth="1"/>
+    <col min="11011" max="11011" width="7.5546875" style="16" customWidth="1"/>
+    <col min="11012" max="11012" width="11.5546875" style="16" customWidth="1"/>
+    <col min="11013" max="11013" width="12.109375" style="16" customWidth="1"/>
+    <col min="11014" max="11014" width="15.109375" style="16" customWidth="1"/>
+    <col min="11015" max="11015" width="12.109375" style="16" customWidth="1"/>
+    <col min="11016" max="11016" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11264" width="9.109375" style="16"/>
+    <col min="11265" max="11265" width="5.109375" style="16" customWidth="1"/>
+    <col min="11266" max="11266" width="34" style="16" customWidth="1"/>
+    <col min="11267" max="11267" width="7.5546875" style="16" customWidth="1"/>
+    <col min="11268" max="11268" width="11.5546875" style="16" customWidth="1"/>
+    <col min="11269" max="11269" width="12.109375" style="16" customWidth="1"/>
+    <col min="11270" max="11270" width="15.109375" style="16" customWidth="1"/>
+    <col min="11271" max="11271" width="12.109375" style="16" customWidth="1"/>
+    <col min="11272" max="11272" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11520" width="9.109375" style="16"/>
+    <col min="11521" max="11521" width="5.109375" style="16" customWidth="1"/>
+    <col min="11522" max="11522" width="34" style="16" customWidth="1"/>
+    <col min="11523" max="11523" width="7.5546875" style="16" customWidth="1"/>
+    <col min="11524" max="11524" width="11.5546875" style="16" customWidth="1"/>
+    <col min="11525" max="11525" width="12.109375" style="16" customWidth="1"/>
+    <col min="11526" max="11526" width="15.109375" style="16" customWidth="1"/>
+    <col min="11527" max="11527" width="12.109375" style="16" customWidth="1"/>
+    <col min="11528" max="11528" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11776" width="9.109375" style="16"/>
+    <col min="11777" max="11777" width="5.109375" style="16" customWidth="1"/>
+    <col min="11778" max="11778" width="34" style="16" customWidth="1"/>
+    <col min="11779" max="11779" width="7.5546875" style="16" customWidth="1"/>
+    <col min="11780" max="11780" width="11.5546875" style="16" customWidth="1"/>
+    <col min="11781" max="11781" width="12.109375" style="16" customWidth="1"/>
+    <col min="11782" max="11782" width="15.109375" style="16" customWidth="1"/>
+    <col min="11783" max="11783" width="12.109375" style="16" customWidth="1"/>
+    <col min="11784" max="11784" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11785" max="12032" width="9.109375" style="16"/>
+    <col min="12033" max="12033" width="5.109375" style="16" customWidth="1"/>
+    <col min="12034" max="12034" width="34" style="16" customWidth="1"/>
+    <col min="12035" max="12035" width="7.5546875" style="16" customWidth="1"/>
+    <col min="12036" max="12036" width="11.5546875" style="16" customWidth="1"/>
+    <col min="12037" max="12037" width="12.109375" style="16" customWidth="1"/>
+    <col min="12038" max="12038" width="15.109375" style="16" customWidth="1"/>
+    <col min="12039" max="12039" width="12.109375" style="16" customWidth="1"/>
+    <col min="12040" max="12040" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12288" width="9.109375" style="16"/>
+    <col min="12289" max="12289" width="5.109375" style="16" customWidth="1"/>
+    <col min="12290" max="12290" width="34" style="16" customWidth="1"/>
+    <col min="12291" max="12291" width="7.5546875" style="16" customWidth="1"/>
+    <col min="12292" max="12292" width="11.5546875" style="16" customWidth="1"/>
+    <col min="12293" max="12293" width="12.109375" style="16" customWidth="1"/>
+    <col min="12294" max="12294" width="15.109375" style="16" customWidth="1"/>
+    <col min="12295" max="12295" width="12.109375" style="16" customWidth="1"/>
+    <col min="12296" max="12296" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12544" width="9.109375" style="16"/>
+    <col min="12545" max="12545" width="5.109375" style="16" customWidth="1"/>
+    <col min="12546" max="12546" width="34" style="16" customWidth="1"/>
+    <col min="12547" max="12547" width="7.5546875" style="16" customWidth="1"/>
+    <col min="12548" max="12548" width="11.5546875" style="16" customWidth="1"/>
+    <col min="12549" max="12549" width="12.109375" style="16" customWidth="1"/>
+    <col min="12550" max="12550" width="15.109375" style="16" customWidth="1"/>
+    <col min="12551" max="12551" width="12.109375" style="16" customWidth="1"/>
+    <col min="12552" max="12552" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12800" width="9.109375" style="16"/>
+    <col min="12801" max="12801" width="5.109375" style="16" customWidth="1"/>
+    <col min="12802" max="12802" width="34" style="16" customWidth="1"/>
+    <col min="12803" max="12803" width="7.5546875" style="16" customWidth="1"/>
+    <col min="12804" max="12804" width="11.5546875" style="16" customWidth="1"/>
+    <col min="12805" max="12805" width="12.109375" style="16" customWidth="1"/>
+    <col min="12806" max="12806" width="15.109375" style="16" customWidth="1"/>
+    <col min="12807" max="12807" width="12.109375" style="16" customWidth="1"/>
+    <col min="12808" max="12808" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12809" max="13056" width="9.109375" style="16"/>
+    <col min="13057" max="13057" width="5.109375" style="16" customWidth="1"/>
+    <col min="13058" max="13058" width="34" style="16" customWidth="1"/>
+    <col min="13059" max="13059" width="7.5546875" style="16" customWidth="1"/>
+    <col min="13060" max="13060" width="11.5546875" style="16" customWidth="1"/>
+    <col min="13061" max="13061" width="12.109375" style="16" customWidth="1"/>
+    <col min="13062" max="13062" width="15.109375" style="16" customWidth="1"/>
+    <col min="13063" max="13063" width="12.109375" style="16" customWidth="1"/>
+    <col min="13064" max="13064" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13312" width="9.109375" style="16"/>
+    <col min="13313" max="13313" width="5.109375" style="16" customWidth="1"/>
+    <col min="13314" max="13314" width="34" style="16" customWidth="1"/>
+    <col min="13315" max="13315" width="7.5546875" style="16" customWidth="1"/>
+    <col min="13316" max="13316" width="11.5546875" style="16" customWidth="1"/>
+    <col min="13317" max="13317" width="12.109375" style="16" customWidth="1"/>
+    <col min="13318" max="13318" width="15.109375" style="16" customWidth="1"/>
+    <col min="13319" max="13319" width="12.109375" style="16" customWidth="1"/>
+    <col min="13320" max="13320" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13568" width="9.109375" style="16"/>
+    <col min="13569" max="13569" width="5.109375" style="16" customWidth="1"/>
+    <col min="13570" max="13570" width="34" style="16" customWidth="1"/>
+    <col min="13571" max="13571" width="7.5546875" style="16" customWidth="1"/>
+    <col min="13572" max="13572" width="11.5546875" style="16" customWidth="1"/>
+    <col min="13573" max="13573" width="12.109375" style="16" customWidth="1"/>
+    <col min="13574" max="13574" width="15.109375" style="16" customWidth="1"/>
+    <col min="13575" max="13575" width="12.109375" style="16" customWidth="1"/>
+    <col min="13576" max="13576" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13824" width="9.109375" style="16"/>
+    <col min="13825" max="13825" width="5.109375" style="16" customWidth="1"/>
+    <col min="13826" max="13826" width="34" style="16" customWidth="1"/>
+    <col min="13827" max="13827" width="7.5546875" style="16" customWidth="1"/>
+    <col min="13828" max="13828" width="11.5546875" style="16" customWidth="1"/>
+    <col min="13829" max="13829" width="12.109375" style="16" customWidth="1"/>
+    <col min="13830" max="13830" width="15.109375" style="16" customWidth="1"/>
+    <col min="13831" max="13831" width="12.109375" style="16" customWidth="1"/>
+    <col min="13832" max="13832" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13833" max="14080" width="9.109375" style="16"/>
+    <col min="14081" max="14081" width="5.109375" style="16" customWidth="1"/>
+    <col min="14082" max="14082" width="34" style="16" customWidth="1"/>
+    <col min="14083" max="14083" width="7.5546875" style="16" customWidth="1"/>
+    <col min="14084" max="14084" width="11.5546875" style="16" customWidth="1"/>
+    <col min="14085" max="14085" width="12.109375" style="16" customWidth="1"/>
+    <col min="14086" max="14086" width="15.109375" style="16" customWidth="1"/>
+    <col min="14087" max="14087" width="12.109375" style="16" customWidth="1"/>
+    <col min="14088" max="14088" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14336" width="9.109375" style="16"/>
+    <col min="14337" max="14337" width="5.109375" style="16" customWidth="1"/>
+    <col min="14338" max="14338" width="34" style="16" customWidth="1"/>
+    <col min="14339" max="14339" width="7.5546875" style="16" customWidth="1"/>
+    <col min="14340" max="14340" width="11.5546875" style="16" customWidth="1"/>
+    <col min="14341" max="14341" width="12.109375" style="16" customWidth="1"/>
+    <col min="14342" max="14342" width="15.109375" style="16" customWidth="1"/>
+    <col min="14343" max="14343" width="12.109375" style="16" customWidth="1"/>
+    <col min="14344" max="14344" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14592" width="9.109375" style="16"/>
+    <col min="14593" max="14593" width="5.109375" style="16" customWidth="1"/>
+    <col min="14594" max="14594" width="34" style="16" customWidth="1"/>
+    <col min="14595" max="14595" width="7.5546875" style="16" customWidth="1"/>
+    <col min="14596" max="14596" width="11.5546875" style="16" customWidth="1"/>
+    <col min="14597" max="14597" width="12.109375" style="16" customWidth="1"/>
+    <col min="14598" max="14598" width="15.109375" style="16" customWidth="1"/>
+    <col min="14599" max="14599" width="12.109375" style="16" customWidth="1"/>
+    <col min="14600" max="14600" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14848" width="9.109375" style="16"/>
+    <col min="14849" max="14849" width="5.109375" style="16" customWidth="1"/>
+    <col min="14850" max="14850" width="34" style="16" customWidth="1"/>
+    <col min="14851" max="14851" width="7.5546875" style="16" customWidth="1"/>
+    <col min="14852" max="14852" width="11.5546875" style="16" customWidth="1"/>
+    <col min="14853" max="14853" width="12.109375" style="16" customWidth="1"/>
+    <col min="14854" max="14854" width="15.109375" style="16" customWidth="1"/>
+    <col min="14855" max="14855" width="12.109375" style="16" customWidth="1"/>
+    <col min="14856" max="14856" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14857" max="15104" width="9.109375" style="16"/>
+    <col min="15105" max="15105" width="5.109375" style="16" customWidth="1"/>
+    <col min="15106" max="15106" width="34" style="16" customWidth="1"/>
+    <col min="15107" max="15107" width="7.5546875" style="16" customWidth="1"/>
+    <col min="15108" max="15108" width="11.5546875" style="16" customWidth="1"/>
+    <col min="15109" max="15109" width="12.109375" style="16" customWidth="1"/>
+    <col min="15110" max="15110" width="15.109375" style="16" customWidth="1"/>
+    <col min="15111" max="15111" width="12.109375" style="16" customWidth="1"/>
+    <col min="15112" max="15112" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15360" width="9.109375" style="16"/>
+    <col min="15361" max="15361" width="5.109375" style="16" customWidth="1"/>
+    <col min="15362" max="15362" width="34" style="16" customWidth="1"/>
+    <col min="15363" max="15363" width="7.5546875" style="16" customWidth="1"/>
+    <col min="15364" max="15364" width="11.5546875" style="16" customWidth="1"/>
+    <col min="15365" max="15365" width="12.109375" style="16" customWidth="1"/>
+    <col min="15366" max="15366" width="15.109375" style="16" customWidth="1"/>
+    <col min="15367" max="15367" width="12.109375" style="16" customWidth="1"/>
+    <col min="15368" max="15368" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15616" width="9.109375" style="16"/>
+    <col min="15617" max="15617" width="5.109375" style="16" customWidth="1"/>
+    <col min="15618" max="15618" width="34" style="16" customWidth="1"/>
+    <col min="15619" max="15619" width="7.5546875" style="16" customWidth="1"/>
+    <col min="15620" max="15620" width="11.5546875" style="16" customWidth="1"/>
+    <col min="15621" max="15621" width="12.109375" style="16" customWidth="1"/>
+    <col min="15622" max="15622" width="15.109375" style="16" customWidth="1"/>
+    <col min="15623" max="15623" width="12.109375" style="16" customWidth="1"/>
+    <col min="15624" max="15624" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15872" width="9.109375" style="16"/>
+    <col min="15873" max="15873" width="5.109375" style="16" customWidth="1"/>
+    <col min="15874" max="15874" width="34" style="16" customWidth="1"/>
+    <col min="15875" max="15875" width="7.5546875" style="16" customWidth="1"/>
+    <col min="15876" max="15876" width="11.5546875" style="16" customWidth="1"/>
+    <col min="15877" max="15877" width="12.109375" style="16" customWidth="1"/>
+    <col min="15878" max="15878" width="15.109375" style="16" customWidth="1"/>
+    <col min="15879" max="15879" width="12.109375" style="16" customWidth="1"/>
+    <col min="15880" max="15880" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15881" max="16128" width="9.109375" style="16"/>
+    <col min="16129" max="16129" width="5.109375" style="16" customWidth="1"/>
+    <col min="16130" max="16130" width="34" style="16" customWidth="1"/>
+    <col min="16131" max="16131" width="7.5546875" style="16" customWidth="1"/>
+    <col min="16132" max="16132" width="11.5546875" style="16" customWidth="1"/>
+    <col min="16133" max="16133" width="12.109375" style="16" customWidth="1"/>
+    <col min="16134" max="16134" width="15.109375" style="16" customWidth="1"/>
+    <col min="16135" max="16135" width="12.109375" style="16" customWidth="1"/>
+    <col min="16136" max="16136" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16384" width="9.109375" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="A3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" s="26" customFormat="1" ht="42" thickBot="1">
+      <c r="A4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="38">
+        <v>1</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="41">
+        <v>233</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43">
+        <f>D7*0.03</f>
+        <v>6.9899999999999993</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="45">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="48">
+        <v>13</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43">
+        <f>D8*0.03</f>
+        <v>0.39</v>
+      </c>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="51">
+        <f>A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="53">
+        <v>334</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="54">
+        <f>D9*0.029</f>
+        <v>9.6859999999999999</v>
+      </c>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="51">
+        <f t="shared" ref="A10:A21" si="0">A9+1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="57">
+        <v>625</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59">
+        <f t="shared" ref="G10:G16" si="1">D10*0.00002</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="51">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="57">
+        <v>1925</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59">
+        <f t="shared" si="1"/>
+        <v>3.8500000000000006E-2</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="57">
+        <v>350</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="51">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="57">
+        <v>25</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="51">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="57">
+        <v>125</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="51">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="62">
+        <v>75</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59">
+        <f t="shared" si="1"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="64">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="62">
+        <v>175</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="64">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="57">
+        <v>11</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59">
+        <f>D17*0.00376</f>
+        <v>4.1360000000000001E-2</v>
+      </c>
+      <c r="H17" s="60"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="65">
+        <f>A17+1</f>
+        <v>12</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="66">
+        <v>32</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="68">
+        <f>D18*0.00391</f>
+        <v>0.12512000000000001</v>
+      </c>
+      <c r="H18" s="69"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="65">
+        <f>A18+1</f>
+        <v>13</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="66">
+        <v>3</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="68">
+        <f>E19*0.00521</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="65">
+        <f>A19+1</f>
+        <v>14</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="66">
+        <v>55</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="68">
+        <f>D20*0.022</f>
+        <v>1.21</v>
+      </c>
+      <c r="H20" s="69"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.6">
+      <c r="A21" s="65">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="66">
+        <v>5</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68">
+        <f>D21*0.012</f>
+        <v>0.06</v>
+      </c>
+      <c r="H21" s="69"/>
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="65">
+        <f>A21+1</f>
+        <v>16</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="74"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="65">
+        <f>A22+1</f>
+        <v>17</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="75"/>
+    </row>
+    <row r="24" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A24" s="65">
+        <f>A22+1</f>
+        <v>17</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="75"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="65">
+        <f t="shared" ref="A25:A32" si="2">A24+1</f>
+        <v>18</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="76"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="65">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="65">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="65">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="65">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="65">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="78"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="65">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="66">
+        <v>6</v>
+      </c>
+      <c r="E31" s="67"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58">
+        <f>D31*0.01339</f>
+        <v>8.0340000000000009E-2</v>
+      </c>
+      <c r="H31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="79"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1">
+      <c r="A32" s="80">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="83">
+        <v>3</v>
+      </c>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86">
+        <f>D32*0.01982</f>
+        <v>5.9459999999999999E-2</v>
+      </c>
+      <c r="H32" s="87"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="79"/>
+      <c r="N32" s="78"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="89"/>
+      <c r="B33" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43">
+        <f>SUM(F7:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="54">
+        <f>SUM(G7:G32)</f>
+        <v>18.708279999999998</v>
+      </c>
+      <c r="H33" s="90"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.6">
+      <c r="A34" s="89"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="90"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="91"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="89"/>
+      <c r="B35" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="90"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="93">
+        <f>A32+1</f>
+        <v>26</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="41">
+        <v>17</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="54">
+        <f>D36*0.019</f>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H36" s="90"/>
+      <c r="M36" s="79"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.6">
+      <c r="A37" s="93">
+        <f t="shared" ref="A37:A43" si="3">A36+1</f>
+        <v>27</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="41">
+        <v>10</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="54">
+        <f>D37*0.057</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="H37" s="90"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="72"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="93">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="41">
+        <v>10</v>
+      </c>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="54">
+        <f>D38*0.048</f>
+        <v>0.48</v>
+      </c>
+      <c r="H38" s="90"/>
+      <c r="N38" s="74"/>
+    </row>
+    <row r="39" spans="1:14" s="78" customFormat="1">
+      <c r="A39" s="94">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="48">
+        <v>10</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58">
+        <f>D39*0.043</f>
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="H39" s="95"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="74"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="94">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="48">
+        <v>4</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58">
+        <f>D40*0.046</f>
+        <v>0.184</v>
+      </c>
+      <c r="H40" s="95"/>
+      <c r="N40" s="74"/>
+    </row>
+    <row r="41" spans="1:14" s="91" customFormat="1">
+      <c r="A41" s="94">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="48">
+        <v>4</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58">
+        <f>D41*0.038</f>
+        <v>0.152</v>
+      </c>
+      <c r="H41" s="95"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="74"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="94">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="48">
+        <v>4</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58">
+        <f>D42*0.0345</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H42" s="95"/>
+      <c r="M42" s="96"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1">
+      <c r="A43" s="94">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B43" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="99">
+        <v>1</v>
+      </c>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84">
+        <f>D43*0.025</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H43" s="100"/>
+    </row>
+    <row r="44" spans="1:14" s="72" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="93"/>
+      <c r="B44" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43">
+        <f>SUM(F36:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="43">
+        <f>SUM(G36:G43)</f>
+        <v>2.3019999999999996</v>
+      </c>
+      <c r="H44" s="90"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="94"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="95"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="94"/>
+      <c r="B46" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="95"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="94">
+        <f>A43+1</f>
+        <v>34</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="41">
+        <v>6</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="54">
+        <f>D47*0.019</f>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="H47" s="95"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="94">
+        <f>A47+1</f>
+        <v>35</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="41">
+        <v>36</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="54">
+        <f>D48*0.019</f>
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="H48" s="95"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="94">
+        <f t="shared" ref="A49:A55" si="4">A48+1</f>
+        <v>36</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="41">
+        <v>4</v>
+      </c>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="54">
+        <f>D49*0.057</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H49" s="90"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="94">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="41">
+        <v>4</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="54">
+        <f>D50*0.048</f>
+        <v>0.192</v>
+      </c>
+      <c r="H50" s="90"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="94">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="48">
+        <v>109</v>
+      </c>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58">
+        <f>D51*0.043</f>
+        <v>4.6869999999999994</v>
+      </c>
+      <c r="H51" s="95"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="94">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="48">
+        <v>1</v>
+      </c>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58">
+        <f>D52*0.046</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H52" s="95"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="94">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="48">
+        <v>1</v>
+      </c>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58">
+        <f>D53*0.038</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H53" s="95"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="94">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="48">
+        <v>4</v>
+      </c>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58">
+        <f>D54*0.0345</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H54" s="95"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1">
+      <c r="A55" s="102">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B55" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="99">
+        <v>2</v>
+      </c>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84">
+        <f>D55*0.025</f>
+        <v>0.05</v>
+      </c>
+      <c r="H55" s="100"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="93"/>
+      <c r="B56" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58">
+        <f>SUM(F47:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="58">
+        <f>SUM(G47:G55)</f>
+        <v>6.1769999999999996</v>
+      </c>
+      <c r="H56" s="95"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="94"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="95"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="94"/>
+      <c r="B58" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="95"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="94"/>
+      <c r="B59" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="58">
+        <f>G33</f>
+        <v>18.708279999999998</v>
+      </c>
+      <c r="H59" s="95"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="104"/>
+      <c r="B60" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58">
+        <f>F44</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="58">
+        <f>G44</f>
+        <v>2.3019999999999996</v>
+      </c>
+      <c r="H60" s="95"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1">
+      <c r="A61" s="105"/>
+      <c r="B61" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="98"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84">
+        <f>F56</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="84">
+        <f>G56</f>
+        <v>6.1769999999999996</v>
+      </c>
+      <c r="H61" s="100"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="89"/>
+      <c r="B62" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="106">
+        <f>SUM(F59:F61)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="106">
+        <f>SUM(G59:G60)</f>
+        <v>21.010279999999998</v>
+      </c>
+      <c r="H62" s="90"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="107"/>
+      <c r="B63" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="D63" s="52"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="43">
+        <f>F62*C63</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="54"/>
+      <c r="H63" s="110"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1">
+      <c r="A64" s="111"/>
+      <c r="B64" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="113">
+        <v>0.02</v>
+      </c>
+      <c r="D64" s="97"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="84">
+        <f>C64*(F62-F63)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="114"/>
+      <c r="H64" s="115"/>
+    </row>
+    <row r="65" spans="1:8" ht="28.2" thickBot="1">
+      <c r="A65" s="116"/>
+      <c r="B65" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="118"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="120">
+        <f>F62-F63-F64</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="121">
+        <f>G62</f>
+        <v>21.010279999999998</v>
+      </c>
+      <c r="H65" s="122"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="123"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="18"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="18"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="128"/>
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="128"/>
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="129"/>
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="128"/>
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="128"/>
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="130"/>
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="130"/>
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="128"/>
+      <c r="B100"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="131"/>
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="131"/>
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="131"/>
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="131"/>
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="131"/>
+      <c r="B105"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="69.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.8" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.8" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="115.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="115.2">
+      <c r="B3" s="135"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="100.8">
+      <c r="B4" s="135"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="100.8">
+      <c r="B5" s="135"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="100.8">
+      <c r="B6" s="135"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="100.8">
+      <c r="B7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="100.8">
+      <c r="B8" s="135"/>
+      <c r="C8" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="100.8">
+      <c r="B9" s="135"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="100.8">
+      <c r="B10" s="135"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="100.8">
+      <c r="B11" s="135"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100.8">
+      <c r="B12" s="135"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="100.8">
+      <c r="C13" s="137"/>
+      <c r="D13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="100.8">
+      <c r="C14" s="137"/>
+      <c r="D14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="100.8">
+      <c r="C15" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="100.8">
+      <c r="C16" s="134"/>
+      <c r="D16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="100.8">
+      <c r="C17" s="134"/>
+      <c r="D17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="100.8">
+      <c r="C18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="100.8">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="72">
+      <c r="C20" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="57.6">
+      <c r="C21" s="134"/>
+      <c r="D21" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="57.6">
+      <c r="C22" s="134"/>
+      <c r="D22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="57.6">
+      <c r="D23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vykaz_vymer_Neuplny.xlsx
+++ b/Vykaz_vymer_Neuplny.xlsx
@@ -72,9 +72,6 @@
     <t>°</t>
   </si>
   <si>
-    <t>Hranol venca 185x160</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -682,9 +679,6 @@
 Vonkajšie parapety: áno</t>
   </si>
   <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>Balkón O+OS</t>
   </si>
   <si>
@@ -710,6 +704,13 @@
   </si>
   <si>
     <t>do podkrovia</t>
+  </si>
+  <si>
+    <t>ak by sa nedalo spraviť bez stĺpika, tak zvoliť menšiu šírku</t>
+  </si>
+  <si>
+    <t>Hranol venca (pomúrnica) 
+185x160</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1331,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1659,24 +1660,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1700,8 +1704,8 @@
       <xdr:rowOff>16769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>170188</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787408</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>144402</xdr:rowOff>
     </xdr:to>
@@ -2031,13 +2035,13 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.8" thickBot="1">
@@ -2101,11 +2105,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="134">
+      <c r="A4" s="135">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="132" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="136" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -2116,9 +2120,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="134"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="132"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="136"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -2127,11 +2131,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="134">
+      <c r="A6" s="135">
         <v>2</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="132" t="s">
+      <c r="B6" s="134"/>
+      <c r="C6" s="136" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -2142,9 +2146,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="134"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="132"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="136"/>
       <c r="D7" t="s">
         <v>10</v>
       </c>
@@ -2153,24 +2157,24 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="134">
+      <c r="A8" s="135">
         <v>3</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="132" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
       <c r="E8">
         <v>44.284999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="134"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="136"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -2180,7 +2184,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -2216,12 +2220,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="134">
+      <c r="A12" s="135">
         <v>4</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="132" t="s">
-        <v>20</v>
+      <c r="B12" s="134"/>
+      <c r="C12" s="136" t="s">
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -2231,9 +2235,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="134"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="136"/>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -2242,12 +2246,12 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="134">
+      <c r="A14" s="135">
         <v>5</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="132" t="s">
-        <v>21</v>
+      <c r="B14" s="134"/>
+      <c r="C14" s="136" t="s">
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -2257,9 +2261,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="134"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="132"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="136"/>
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -2268,24 +2272,24 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="134">
+      <c r="A16" s="135">
         <v>6</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="132" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
       </c>
       <c r="E16">
         <v>6.6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="134"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="136"/>
       <c r="D17" t="s">
         <v>10</v>
       </c>
@@ -2295,16 +2299,22 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2317,12 +2327,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2336,7 +2340,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2374,7 +2378,7 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -2390,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -2404,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2418,7 +2422,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2432,10 +2436,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0.3</v>
@@ -2446,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -2460,10 +2464,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>72</v>
@@ -2514,7 +2518,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -2525,7 +2529,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -2536,7 +2540,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2547,7 +2551,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -2558,7 +2562,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -2569,7 +2573,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2580,7 +2584,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -3185,7 +3189,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3197,7 +3201,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -3209,7 +3213,7 @@
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -3221,28 +3225,28 @@
     </row>
     <row r="4" spans="1:9" s="26" customFormat="1" ht="42" thickBot="1">
       <c r="A4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>42</v>
-      </c>
       <c r="H4" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
@@ -3251,20 +3255,20 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>44</v>
       </c>
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="32"/>
       <c r="B6" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -3279,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>9</v>
@@ -3302,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>9</v>
@@ -3324,7 +3328,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>9</v>
@@ -3346,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>9</v>
@@ -3369,7 +3373,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>9</v>
@@ -3392,7 +3396,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>9</v>
@@ -3415,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>9</v>
@@ -3438,7 +3442,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>9</v>
@@ -3461,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>9</v>
@@ -3483,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="61" t="s">
         <v>9</v>
@@ -3505,7 +3509,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>9</v>
@@ -3527,7 +3531,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>9</v>
@@ -3549,7 +3553,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>9</v>
@@ -3571,7 +3575,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="71" t="s">
         <v>9</v>
@@ -3593,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="71" t="s">
         <v>9</v>
@@ -3616,7 +3620,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>9</v>
@@ -3626,7 +3630,7 @@
       <c r="F22" s="67"/>
       <c r="G22" s="68"/>
       <c r="H22" s="73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J22" s="74"/>
     </row>
@@ -3636,7 +3640,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="71" t="s">
         <v>9</v>
@@ -3646,7 +3650,7 @@
       <c r="F23" s="67"/>
       <c r="G23" s="68"/>
       <c r="H23" s="73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J23" s="75"/>
     </row>
@@ -3656,7 +3660,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="71" t="s">
         <v>9</v>
@@ -3666,7 +3670,7 @@
       <c r="F24" s="67"/>
       <c r="G24" s="68"/>
       <c r="H24" s="73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" s="75"/>
     </row>
@@ -3676,7 +3680,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="71" t="s">
         <v>9</v>
@@ -3686,7 +3690,7 @@
       <c r="F25" s="67"/>
       <c r="G25" s="68"/>
       <c r="H25" s="73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="76"/>
     </row>
@@ -3696,7 +3700,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="71" t="s">
         <v>9</v>
@@ -3706,7 +3710,7 @@
       <c r="F26" s="67"/>
       <c r="G26" s="68"/>
       <c r="H26" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3715,7 +3719,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="71" t="s">
         <v>9</v>
@@ -3725,7 +3729,7 @@
       <c r="F27" s="67"/>
       <c r="G27" s="68"/>
       <c r="H27" s="73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3734,7 +3738,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="71" t="s">
         <v>9</v>
@@ -3744,7 +3748,7 @@
       <c r="F28" s="67"/>
       <c r="G28" s="68"/>
       <c r="H28" s="73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3753,7 +3757,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>9</v>
@@ -3763,7 +3767,7 @@
       <c r="F29" s="58"/>
       <c r="G29" s="59"/>
       <c r="H29" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3772,7 +3776,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>9</v>
@@ -3782,7 +3786,7 @@
       <c r="F30" s="58"/>
       <c r="G30" s="59"/>
       <c r="H30" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K30" s="78"/>
     </row>
@@ -3792,7 +3796,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>9</v>
@@ -3816,7 +3820,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="82" t="s">
         <v>9</v>
@@ -3838,11 +3842,11 @@
     <row r="33" spans="1:14">
       <c r="A33" s="89"/>
       <c r="B33" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43">
@@ -3872,7 +3876,7 @@
     <row r="35" spans="1:14">
       <c r="A35" s="89"/>
       <c r="B35" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
@@ -3889,7 +3893,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>9</v>
@@ -3912,7 +3916,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>9</v>
@@ -3936,7 +3940,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>9</v>
@@ -3959,7 +3963,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>9</v>
@@ -3987,7 +3991,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>9</v>
@@ -4010,7 +4014,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>9</v>
@@ -4037,7 +4041,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>9</v>
@@ -4060,7 +4064,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="98" t="s">
         <v>9</v>
@@ -4079,7 +4083,7 @@
     <row r="44" spans="1:14" s="72" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="93"/>
       <c r="B44" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="41"/>
@@ -4113,7 +4117,7 @@
     <row r="46" spans="1:14">
       <c r="A46" s="94"/>
       <c r="B46" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="48"/>
@@ -4128,7 +4132,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>9</v>
@@ -4150,7 +4154,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>9</v>
@@ -4172,7 +4176,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>9</v>
@@ -4194,7 +4198,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>9</v>
@@ -4216,7 +4220,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="47" t="s">
         <v>9</v>
@@ -4238,7 +4242,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>9</v>
@@ -4260,7 +4264,7 @@
         <v>40</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>9</v>
@@ -4282,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>9</v>
@@ -4304,7 +4308,7 @@
         <v>42</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="98" t="s">
         <v>9</v>
@@ -4323,7 +4327,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="93"/>
       <c r="B56" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="48"/>
@@ -4351,7 +4355,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="94"/>
       <c r="B58" s="103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="48"/>
@@ -4363,7 +4367,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="94"/>
       <c r="B59" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="47"/>
       <c r="D59" s="48"/>
@@ -4381,7 +4385,7 @@
     <row r="60" spans="1:8">
       <c r="A60" s="104"/>
       <c r="B60" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="47"/>
       <c r="D60" s="48"/>
@@ -4399,7 +4403,7 @@
     <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="105"/>
       <c r="B61" s="97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="98"/>
       <c r="D61" s="99"/>
@@ -4417,7 +4421,7 @@
     <row r="62" spans="1:8">
       <c r="A62" s="89"/>
       <c r="B62" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="41"/>
@@ -4435,7 +4439,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="107"/>
       <c r="B63" s="108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="109">
         <v>0.2</v>
@@ -4452,7 +4456,7 @@
     <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="111"/>
       <c r="B64" s="112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="113">
         <v>0.02</v>
@@ -4469,7 +4473,7 @@
     <row r="65" spans="1:8" ht="28.2" thickBot="1">
       <c r="A65" s="116"/>
       <c r="B65" s="117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="118"/>
       <c r="D65" s="81"/>
@@ -4491,7 +4495,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
@@ -4499,7 +4503,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -4507,7 +4511,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -4515,7 +4519,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
@@ -4523,7 +4527,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
@@ -4531,7 +4535,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
@@ -4539,7 +4543,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -4552,7 +4556,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -4565,7 +4569,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" s="123"/>
       <c r="C77" s="123"/>
@@ -4576,42 +4580,42 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4715,7 +4719,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4726,7 +4730,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -4737,7 +4741,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -4748,7 +4752,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -4764,10 +4768,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4777,7 +4781,7 @@
     <col min="4" max="4" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.8" thickBot="1">
+    <row r="1" spans="1:11" ht="31.8" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -4803,14 +4807,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="115.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="138" t="s">
-        <v>130</v>
+    <row r="2" spans="1:11" ht="115.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="133"/>
+      <c r="C2" s="137" t="s">
+        <v>129</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>9</v>
@@ -4821,30 +4827,36 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="115.2">
-      <c r="B3" s="135"/>
-      <c r="C3" s="137"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="115.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="132"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="100.8">
-      <c r="B4" s="135"/>
-      <c r="C4" s="137"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100.8">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="132"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -4853,14 +4865,17 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="100.8">
-      <c r="B5" s="135"/>
-      <c r="C5" s="137"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100.8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4869,14 +4884,17 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="100.8">
-      <c r="B6" s="135"/>
-      <c r="C6" s="137"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100.8">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -4885,14 +4903,20 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="100.8">
-      <c r="B7" s="135"/>
-      <c r="C7" s="137"/>
+        <v>148</v>
+      </c>
+      <c r="K6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100.8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="132"/>
+      <c r="C7" s="138"/>
       <c r="D7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -4901,16 +4925,19 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="100.8">
-      <c r="B8" s="135"/>
-      <c r="C8" s="137" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100.8">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="132"/>
+      <c r="C8" s="138" t="s">
+        <v>140</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -4919,14 +4946,17 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="100.8">
-      <c r="B9" s="135"/>
-      <c r="C9" s="137"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100.8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="132"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -4935,14 +4965,17 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="100.8">
-      <c r="B10" s="135"/>
-      <c r="C10" s="137"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100.8">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="132"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -4951,14 +4984,17 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="100.8">
-      <c r="B11" s="135"/>
-      <c r="C11" s="137"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100.8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="132"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -4967,14 +5003,17 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="100.8">
-      <c r="B12" s="135"/>
-      <c r="C12" s="137"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100.8">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="132"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -4983,13 +5022,16 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="100.8">
-      <c r="C13" s="137"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100.8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="138"/>
       <c r="D13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -4998,13 +5040,16 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100.8">
-      <c r="C14" s="137"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100.8">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="C14" s="138"/>
       <c r="D14" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -5013,15 +5058,18 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="100.8">
-      <c r="C15" s="134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100.8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="135" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -5030,13 +5078,16 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="100.8">
-      <c r="C16" s="134"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100.8">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="C16" s="135"/>
       <c r="D16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -5045,13 +5096,16 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="100.8">
-      <c r="C17" s="134"/>
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="135"/>
       <c r="D17" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -5060,15 +5114,18 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="100.8">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
       <c r="C18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -5077,18 +5134,18 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="100.8">
-      <c r="A19" t="s">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -5097,15 +5154,18 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="72">
-      <c r="C20" s="134" t="s">
-        <v>159</v>
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>158</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -5114,13 +5174,16 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="57.6">
-      <c r="C21" s="134"/>
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="135"/>
       <c r="D21" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -5129,13 +5192,16 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="57.6">
-      <c r="C22" s="134"/>
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="C22" s="135"/>
       <c r="D22" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -5144,12 +5210,15 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="57.6">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="D23" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -5158,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
